--- a/Projects/MARSRU_SAND/Data/2018/MARS KPIs.xlsx
+++ b/Projects/MARSRU_SAND/Data/2018/MARS KPIs.xlsx
@@ -22,11 +22,11 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$X$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
@@ -39,6 +39,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$B$1:$X$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="334">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -373,7 +376,7 @@
     <t xml:space="preserve">answer for survey</t>
   </si>
   <si>
-    <t xml:space="preserve">SURVEY</t>
+    <t xml:space="preserve">SURVEY BOOLEAN</t>
   </si>
   <si>
     <t xml:space="preserve">Лакомства</t>
@@ -497,6 +500,9 @@
   </si>
   <si>
     <t xml:space="preserve">Укажите бренд импульсного оборудования 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURVEY TRANSLATED</t>
   </si>
   <si>
     <t xml:space="preserve">Strictly after KPI 2310</t>
@@ -661,50 +667,6 @@
 6) Result is calculated according to Must_Range matrix tab 2317</t>
   </si>
   <si>
-    <t xml:space="preserve">Whiskas и Kitekat pouch располагаются рядом - единым неразрывным блоком </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To return true If all wiskas and kitecat pouches are grouped together.
-Which means:
-All items [Brand: Whiskas or Kitekat, Formfactor: POUCH] are placed near [Brand: Whiskas or Kitekat, Formfactor: POUCH] OR near [Brand: Whiskas or Kitekat, SKU_type: Other, Empty]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placed_near</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name: Whiskas, Kitekat. form_factor: POUCH, Pouch, pouch
-brand_name: Whiskas, Kitekat. product_type: Other, Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POUCH, Pouch, pouch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дополнительные вопросы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОP 6 SKU Whiskas стоят на лучших полках</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To check whether all 6 specific SKUs are available on golden shelves (shelves #3-4 from the bottom) - answer is True or False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">availability_on_golden_shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607065003999
-4607065004019
-4607065004057
-4607065004118
-4607065372057
-5000159373111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP 12 SKU стоят на лучших полках</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To check whether all 12 specific SKUs are available on golden shelves (shelves #3-4 from the bottom) - answer is True or False</t>
-  </si>
-  <si>
     <t xml:space="preserve">4607065003999
 4607065004019
 4607065004057
@@ -717,6 +679,50 @@
 5000159438698
 4011100157361
 4607065003838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskas и Kitekat pouch располагаются рядом - единым неразрывным блоком </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To return true If all wiskas and kitecat pouches are grouped together.
+Which means:
+All items [Brand: Whiskas or Kitekat, Formfactor: POUCH] are placed near [Brand: Whiskas or Kitekat, Formfactor: POUCH] OR near [Brand: Whiskas or Kitekat, SKU_type: Other, Empty]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placed_near</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name: Whiskas, Kitekat. form_factor: POUCH, Pouch, pouch
+brand_name: Whiskas, Kitekat. product_type: Other, Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUCH, Pouch, pouch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнительные вопросы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОP 6 SKU Whiskas стоят на лучших полках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check whether all 6 specific SKUs are available on golden shelves (shelves #3-4 from the bottom) - answer is True or False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability_on_golden_shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607065003999
+4607065004019
+4607065004057
+4607065004118
+4607065372057
+5000159373111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP 12 SKU стоят на лучших полках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check whether all 12 specific SKUs are available on golden shelves (shelves #3-4 from the bottom) - answer is True or False</t>
   </si>
   <si>
     <t xml:space="preserve">В магазине есть ДМП</t>
@@ -1251,7 +1257,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1281,12 +1287,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1375,12 +1375,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1445,10 +1445,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1469,7 +1465,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,27 +1473,27 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1533,19 +1529,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1557,11 +1553,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1573,27 +1569,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1679,37 +1675,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:72"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="93.5141700404858"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="8.86234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="19" min="17" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="18.7975708502024"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="17" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1870,7 +1866,7 @@
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -2647,7 +2643,7 @@
       <c r="N17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="16" t="n">
         <v>4607065375966</v>
       </c>
       <c r="P17" s="13" t="s">
@@ -3165,7 +3161,7 @@
       <c r="F27" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>114</v>
       </c>
       <c r="H27" s="14" t="s">
@@ -3189,7 +3185,7 @@
       <c r="N27" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="19" t="n">
+      <c r="O27" s="18" t="n">
         <v>5000159438698</v>
       </c>
       <c r="P27" s="14" t="s">
@@ -3221,7 +3217,7 @@
       <c r="F28" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>116</v>
       </c>
       <c r="H28" s="14" t="s">
@@ -3245,7 +3241,7 @@
       <c r="N28" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="19" t="n">
+      <c r="O28" s="18" t="n">
         <v>4607065003838</v>
       </c>
       <c r="P28" s="14" t="s">
@@ -3277,7 +3273,7 @@
       <c r="F29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H29" s="14" t="s">
@@ -3301,7 +3297,7 @@
       <c r="N29" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="O29" s="19" t="n">
+      <c r="O29" s="18" t="n">
         <v>4011100157361</v>
       </c>
       <c r="P29" s="14" t="s">
@@ -3333,7 +3329,7 @@
       <c r="F30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>120</v>
       </c>
       <c r="H30" s="14" t="s">
@@ -3387,7 +3383,7 @@
       <c r="F31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>123</v>
       </c>
       <c r="H31" s="14" t="s">
@@ -3440,10 +3436,10 @@
       <c r="E32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>125</v>
       </c>
       <c r="H32" s="14" t="s">
@@ -3489,13 +3485,13 @@
         <v>2392</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>127</v>
       </c>
       <c r="H33" s="14" t="s">
@@ -3543,13 +3539,13 @@
         <v>2393</v>
       </c>
       <c r="D34" s="0"/>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>129</v>
       </c>
       <c r="H34" s="14" t="s">
@@ -3595,13 +3591,13 @@
         <v>2394</v>
       </c>
       <c r="D35" s="0"/>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>132</v>
       </c>
       <c r="H35" s="14" t="s">
@@ -3647,13 +3643,13 @@
         <v>2510</v>
       </c>
       <c r="D36" s="0"/>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="17" t="s">
         <v>134</v>
       </c>
       <c r="H36" s="14" t="s">
@@ -3677,7 +3673,7 @@
       <c r="N36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O36" s="19" t="n">
+      <c r="O36" s="18" t="n">
         <v>4607065372057</v>
       </c>
       <c r="P36" s="14" t="s">
@@ -3701,13 +3697,13 @@
         <v>2511</v>
       </c>
       <c r="D37" s="0"/>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="17" t="s">
         <v>135</v>
       </c>
       <c r="H37" s="14" t="s">
@@ -3731,7 +3727,7 @@
       <c r="N37" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="19" t="n">
+      <c r="O37" s="18" t="n">
         <v>5000159373111</v>
       </c>
       <c r="P37" s="14" t="s">
@@ -4063,7 +4059,7 @@
       <c r="F44" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>143</v>
       </c>
       <c r="H44" s="14" t="s">
@@ -4113,7 +4109,7 @@
       <c r="F45" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="17" t="s">
         <v>144</v>
       </c>
       <c r="H45" s="14" t="s">
@@ -4173,7 +4169,7 @@
         <v>104</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>65</v>
@@ -4199,7 +4195,7 @@
     </row>
     <row r="47" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2018</v>
@@ -4217,13 +4213,13 @@
         <v>106</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>110</v>
@@ -4240,7 +4236,7 @@
         <v>111</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
@@ -4266,8 +4262,8 @@
       <c r="F48" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>151</v>
+      <c r="G48" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>103</v>
@@ -4317,7 +4313,7 @@
         <v>95</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>103</v>
@@ -4367,7 +4363,7 @@
         <v>106</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>103</v>
@@ -4376,7 +4372,7 @@
         <v>104</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>65</v>
@@ -4402,7 +4398,7 @@
     </row>
     <row r="51" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2018</v>
@@ -4420,13 +4416,13 @@
         <v>106</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>110</v>
@@ -4443,7 +4439,7 @@
         <v>111</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
@@ -4471,8 +4467,8 @@
       <c r="F52" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>157</v>
+      <c r="G52" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>103</v>
@@ -4521,8 +4517,8 @@
       <c r="F53" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>158</v>
+      <c r="G53" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>103</v>
@@ -4571,8 +4567,8 @@
       <c r="F54" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>159</v>
+      <c r="G54" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>103</v>
@@ -4621,8 +4617,8 @@
       <c r="F55" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="23" t="s">
-        <v>160</v>
+      <c r="G55" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>103</v>
@@ -4671,8 +4667,8 @@
       <c r="F56" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>161</v>
+      <c r="G56" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>103</v>
@@ -4721,8 +4717,8 @@
       <c r="F57" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>162</v>
+      <c r="G57" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>103</v>
@@ -4769,8 +4765,8 @@
       <c r="F58" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>163</v>
+      <c r="G58" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>103</v>
@@ -4820,13 +4816,13 @@
         <v>26</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="15" t="s">
@@ -4851,7 +4847,7 @@
     </row>
     <row r="60" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2018</v>
@@ -4860,20 +4856,20 @@
         <v>2390</v>
       </c>
       <c r="D60" s="15"/>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="G60" s="17" t="s">
         <v>169</v>
       </c>
+      <c r="H60" s="23" t="s">
+        <v>170</v>
+      </c>
       <c r="I60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>64</v>
@@ -4889,7 +4885,7 @@
       <c r="O60" s="13"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="25"/>
+      <c r="R60" s="24"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -4900,7 +4896,7 @@
     </row>
     <row r="61" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>2018</v>
@@ -4909,20 +4905,20 @@
         <v>2391</v>
       </c>
       <c r="D61" s="15"/>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" s="24" t="s">
+      <c r="F61" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="17" t="s">
         <v>171</v>
       </c>
+      <c r="H61" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>64</v>
@@ -4938,7 +4934,7 @@
       <c r="O61" s="13"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="25"/>
+      <c r="R61" s="24"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -4955,20 +4951,20 @@
         <v>2512</v>
       </c>
       <c r="D62" s="0"/>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H62" s="29" t="s">
+      <c r="G62" s="27" t="s">
         <v>173</v>
       </c>
+      <c r="H62" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="I62" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="15" t="s">
@@ -4979,8 +4975,8 @@
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="3"/>
-      <c r="O62" s="30" t="s">
-        <v>175</v>
+      <c r="O62" s="29" t="s">
+        <v>176</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>34</v>
@@ -5003,20 +4999,20 @@
         <v>2513</v>
       </c>
       <c r="D63" s="0"/>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G63" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="31" t="s">
+      <c r="G63" s="22" t="s">
         <v>177</v>
       </c>
+      <c r="H63" s="30" t="s">
+        <v>178</v>
+      </c>
       <c r="I63" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="15" t="s">
@@ -5028,7 +5024,7 @@
       <c r="M63" s="15"/>
       <c r="N63" s="3"/>
       <c r="O63" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>34</v>
@@ -5051,20 +5047,20 @@
         <v>2514</v>
       </c>
       <c r="D64" s="0"/>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G64" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H64" s="31" t="s">
+      <c r="G64" s="22" t="s">
         <v>180</v>
       </c>
+      <c r="H64" s="30" t="s">
+        <v>181</v>
+      </c>
       <c r="I64" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="15" t="s">
@@ -5076,7 +5072,7 @@
       <c r="M64" s="15"/>
       <c r="N64" s="3"/>
       <c r="O64" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>34</v>
@@ -5099,20 +5095,20 @@
         <v>2515</v>
       </c>
       <c r="D65" s="0"/>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G65" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H65" s="31" t="s">
+      <c r="G65" s="22" t="s">
         <v>183</v>
       </c>
+      <c r="H65" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="I65" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="15" t="s">
@@ -5124,7 +5120,7 @@
       <c r="M65" s="15"/>
       <c r="N65" s="3"/>
       <c r="O65" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>34</v>
@@ -5155,14 +5151,14 @@
       <c r="F66" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H66" s="31" t="s">
+      <c r="G66" s="27" t="s">
         <v>186</v>
       </c>
+      <c r="H66" s="30" t="s">
+        <v>187</v>
+      </c>
       <c r="I66" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="15" t="s">
@@ -5173,7 +5169,9 @@
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="14"/>
-      <c r="O66" s="13"/>
+      <c r="O66" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="P66" s="14" t="s">
         <v>34</v>
       </c>
@@ -5197,20 +5195,20 @@
       <c r="D67" s="1" t="n">
         <v>1688</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>188</v>
+      <c r="G67" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="15" t="s">
@@ -5222,7 +5220,7 @@
       <c r="M67" s="15"/>
       <c r="N67" s="3"/>
       <c r="O67" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>34</v>
@@ -5235,7 +5233,7 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
@@ -5248,20 +5246,20 @@
       <c r="C68" s="15" t="n">
         <v>90001</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="H68" s="31" t="s">
+      <c r="F68" s="19" t="s">
         <v>194</v>
       </c>
+      <c r="G68" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="I68" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="15" t="s">
@@ -5273,7 +5271,7 @@
       <c r="M68" s="15"/>
       <c r="N68" s="3"/>
       <c r="O68" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>34</v>
@@ -5295,20 +5293,20 @@
       <c r="C69" s="15" t="n">
         <v>90002</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G69" s="23" t="s">
+      <c r="F69" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="15" t="s">
@@ -5320,7 +5318,7 @@
       <c r="M69" s="15"/>
       <c r="N69" s="3"/>
       <c r="O69" s="13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>34</v>
@@ -5342,20 +5340,20 @@
       <c r="C70" s="15" t="n">
         <v>90003</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="H70" s="31" t="s">
+      <c r="F70" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>201</v>
       </c>
+      <c r="H70" s="30" t="s">
+        <v>202</v>
+      </c>
       <c r="I70" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="15" t="s">
@@ -5367,10 +5365,10 @@
       <c r="M70" s="15"/>
       <c r="N70" s="3"/>
       <c r="O70" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q70" s="0"/>
       <c r="R70" s="3"/>
@@ -5389,20 +5387,22 @@
       <c r="C71" s="15" t="n">
         <v>2537</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G71" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="H71" s="31"/>
+      <c r="G71" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="I71" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="14" t="s">
         <v>105</v>
       </c>
       <c r="K71" s="12" t="s">
@@ -5438,19 +5438,19 @@
         <v>25</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I72" s="32" t="s">
         <v>209</v>
       </c>
+      <c r="I72" s="31" t="s">
+        <v>210</v>
+      </c>
       <c r="J72" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>65</v>
@@ -5459,9 +5459,2419 @@
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1046167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1046999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="B1:X72"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5488,118 +7898,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>238</v>
+      <c r="A2" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>240</v>
+      <c r="A3" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>241</v>
+      <c r="A4" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>243</v>
+      <c r="A5" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>244</v>
+      <c r="A6" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>245</v>
+      <c r="A7" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>246</v>
+      <c r="A8" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>247</v>
+      <c r="A9" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>248</v>
+      <c r="A10" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="52" t="s">
         <v>326</v>
       </c>
+      <c r="B11" s="50" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="52" t="s">
         <v>328</v>
       </c>
+      <c r="B12" s="50" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>330</v>
       </c>
+      <c r="B13" s="50" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="52" t="s">
         <v>332</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5627,82 +8037,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="34" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="32" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="33" width="11.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="D1" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="35" t="n">
+      <c r="A2" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="34" t="n">
         <v>2310</v>
       </c>
-      <c r="C2" s="35" t="n">
+      <c r="C2" s="34" t="n">
         <v>1846</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="35" t="n">
+      <c r="B3" s="34" t="n">
         <v>2310</v>
       </c>
-      <c r="C3" s="35" t="n">
+      <c r="C3" s="34" t="n">
         <v>1847</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>218</v>
+      <c r="D3" s="36" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="35" t="n">
+      <c r="A4" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="34" t="n">
         <v>2310</v>
       </c>
-      <c r="C4" s="35" t="n">
+      <c r="C4" s="34" t="n">
         <v>1846</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="34" t="n">
         <v>2310</v>
       </c>
-      <c r="C5" s="35" t="n">
+      <c r="C5" s="34" t="n">
         <v>1847</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>221</v>
+      <c r="D5" s="36" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5729,81 +8139,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="34" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="33" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="33" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="33" width="11.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>215</v>
       </c>
+      <c r="D1" s="35" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="35" t="n">
+      <c r="A2" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="34" t="n">
         <v>2330</v>
       </c>
-      <c r="C2" s="37" t="n">
+      <c r="C2" s="36" t="n">
         <v>1848</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="35" t="n">
+      <c r="B3" s="34" t="n">
         <v>2330</v>
       </c>
-      <c r="C3" s="37" t="n">
+      <c r="C3" s="36" t="n">
         <v>1849</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>218</v>
+      <c r="D3" s="36" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="35" t="n">
+      <c r="A4" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="34" t="n">
         <v>2330</v>
       </c>
-      <c r="C4" s="37" t="n">
+      <c r="C4" s="36" t="n">
         <v>1848</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="34" t="n">
         <v>2330</v>
       </c>
-      <c r="C5" s="37" t="n">
+      <c r="C5" s="36" t="n">
         <v>1849</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>221</v>
+      <c r="D5" s="36" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5830,109 +8240,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="D1" s="38" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="38" t="n">
+      <c r="A2" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="37" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="37" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="38" t="n">
+      <c r="B5" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="275" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="38" t="n">
+      <c r="C5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="38" t="n">
+      <c r="C6" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C7" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>230</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="38" t="n">
-        <v>2254</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="38" t="n">
-        <v>2254</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5959,109 +8369,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="41" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="41" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="64.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="40" width="11.0323886639676"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>215</v>
       </c>
+      <c r="D1" s="38" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="38" t="n">
+      <c r="A2" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="37" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="37" t="n">
+        <v>2254</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="38" t="n">
+      <c r="B5" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="38" t="n">
+      <c r="C5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="38" t="n">
+      <c r="C6" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="37" t="n">
         <v>2254</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="38" t="n">
-        <v>2254</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="327" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="38" t="n">
-        <v>2254</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>236</v>
+      <c r="C7" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6083,94 +8493,94 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="56" zoomScaleNormal="56" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="33" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="33" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="32" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="32" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>237</v>
+      <c r="A1" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>239</v>
       </c>
+      <c r="B2" s="32" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>242</v>
       </c>
+      <c r="B4" s="32" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>242</v>
+      <c r="A6" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>242</v>
+      <c r="A7" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>242</v>
+      <c r="A8" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>242</v>
+      <c r="A9" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>242</v>
+      <c r="A10" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6197,103 +8607,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8744939271255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>253</v>
+      <c r="H1" s="44" t="s">
+        <v>254</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>254</v>
+      <c r="A2" s="40" t="s">
+        <v>255</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" s="11" t="n">
         <v>1.6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E2" s="11" t="n">
         <v>1834</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>1.6</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E3" s="11" t="n">
         <v>1832</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>1.6</v>
@@ -6305,47 +8715,47 @@
         <v>1832</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>1836</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>2.4</v>
@@ -6357,47 +8767,47 @@
         <v>1836</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C7" s="11" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>1838</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>3</v>
@@ -6409,21 +8819,21 @@
         <v>1838</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>3</v>
@@ -6435,21 +8845,21 @@
         <v>1838</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" s="11" t="n">
         <v>3</v>
@@ -6461,21 +8871,21 @@
         <v>1838</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C11" s="11" t="n">
         <v>4</v>
@@ -6487,47 +8897,47 @@
         <v>1840</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>1840</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C13" s="11" t="n">
         <v>4</v>
@@ -6539,47 +8949,47 @@
         <v>1840</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" s="11" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>1842</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C15" s="11" t="n">
         <v>5</v>
@@ -6591,47 +9001,47 @@
         <v>1842</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>1829</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C17" s="11" t="n">
         <v>0</v>
@@ -6643,47 +9053,47 @@
         <v>1829</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>1826</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C19" s="11" t="n">
         <v>0</v>
@@ -6695,21 +9105,21 @@
         <v>1826</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C20" s="11" t="n">
         <v>0</v>
@@ -6721,21 +9131,21 @@
         <v>1826</v>
       </c>
       <c r="F20" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="11" t="n">
         <v>0</v>
@@ -6747,21 +9157,21 @@
         <v>1826</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C22" s="11" t="n">
         <v>0</v>
@@ -6773,21 +9183,21 @@
         <v>1826</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="11" t="n">
         <v>0</v>
@@ -6799,21 +9209,21 @@
         <v>1826</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="11" t="n">
         <v>0</v>
@@ -6825,47 +9235,47 @@
         <v>1826</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="11" t="n">
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>1844</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="11" t="n">
         <v>1.6</v>
@@ -6877,21 +9287,21 @@
         <v>1832</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C27" s="11" t="n">
         <v>1.6</v>
@@ -6903,21 +9313,21 @@
         <v>1832</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>1.6</v>
@@ -6929,21 +9339,21 @@
         <v>1832</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>1.6</v>
@@ -6955,21 +9365,21 @@
         <v>1832</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>2.4</v>
@@ -6981,21 +9391,21 @@
         <v>1836</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>2.4</v>
@@ -7007,21 +9417,21 @@
         <v>1836</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>2.4</v>
@@ -7033,47 +9443,47 @@
         <v>1836</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>1830</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" s="11" t="n">
         <v>0</v>
@@ -7085,47 +9495,47 @@
         <v>1830</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E35" s="11" t="n">
         <v>1827</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C36" s="11" t="n">
         <v>0</v>
@@ -7137,21 +9547,21 @@
         <v>1827</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C37" s="11" t="n">
         <v>0</v>
@@ -7163,21 +9573,21 @@
         <v>1827</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C38" s="11" t="n">
         <v>0</v>
@@ -7189,21 +9599,21 @@
         <v>1827</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>0</v>
@@ -7215,21 +9625,21 @@
         <v>1827</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" s="11" t="n">
         <v>0</v>
@@ -7241,21 +9651,21 @@
         <v>1827</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>0</v>
@@ -7267,21 +9677,21 @@
         <v>1827</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>1.6</v>
@@ -7293,21 +9703,21 @@
         <v>2833</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>1.6</v>
@@ -7319,21 +9729,21 @@
         <v>2833</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C44" s="11" t="n">
         <v>1.6</v>
@@ -7345,21 +9755,21 @@
         <v>2833</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C45" s="11" t="n">
         <v>1.6</v>
@@ -7371,21 +9781,21 @@
         <v>2833</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C46" s="11" t="n">
         <v>1.6</v>
@@ -7397,21 +9807,21 @@
         <v>3833</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>1.6</v>
@@ -7423,21 +9833,21 @@
         <v>3833</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C48" s="11" t="n">
         <v>1.6</v>
@@ -7449,21 +9859,21 @@
         <v>3833</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C49" s="11" t="n">
         <v>1.6</v>
@@ -7475,125 +9885,125 @@
         <v>3833</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>1.6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E50" s="11" t="n">
         <v>3835</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>1.6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" s="11" t="n">
         <v>2835</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C52" s="11" t="n">
         <v>1.6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E52" s="11" t="n">
         <v>3833</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C53" s="11" t="n">
         <v>1.6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E53" s="11" t="n">
         <v>2833</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" s="11" t="n">
         <v>1.6</v>
@@ -7605,21 +10015,21 @@
         <v>3833</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C55" s="11" t="n">
         <v>1.6</v>
@@ -7631,21 +10041,21 @@
         <v>2833</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C56" s="11" t="n">
         <v>2.4</v>
@@ -7657,21 +10067,21 @@
         <v>3837</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C57" s="11" t="n">
         <v>2.4</v>
@@ -7683,21 +10093,21 @@
         <v>2837</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C58" s="11" t="n">
         <v>2.4</v>
@@ -7709,21 +10119,21 @@
         <v>3837</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C59" s="11" t="n">
         <v>2.4</v>
@@ -7735,21 +10145,21 @@
         <v>2837</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C60" s="11" t="n">
         <v>2.4</v>
@@ -7761,21 +10171,21 @@
         <v>3837</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C61" s="11" t="n">
         <v>2.4</v>
@@ -7787,73 +10197,73 @@
         <v>2837</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C62" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E62" s="11" t="n">
         <v>3837</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C63" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E63" s="11" t="n">
         <v>2837</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C64" s="11" t="n">
         <v>2.4</v>
@@ -7865,21 +10275,21 @@
         <v>3837</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C65" s="11" t="n">
         <v>2.4</v>
@@ -7891,73 +10301,73 @@
         <v>2837</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" s="11" t="n">
         <v>3</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E66" s="11" t="n">
         <v>3839</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C67" s="11" t="n">
         <v>3</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E67" s="11" t="n">
         <v>2839</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C68" s="11" t="n">
         <v>3</v>
@@ -7969,21 +10379,21 @@
         <v>3839</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C69" s="11" t="n">
         <v>3</v>
@@ -7995,21 +10405,21 @@
         <v>2839</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" s="11" t="n">
         <v>3</v>
@@ -8021,21 +10431,21 @@
         <v>3839</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C71" s="11" t="n">
         <v>3</v>
@@ -8047,21 +10457,21 @@
         <v>2839</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C72" s="11" t="n">
         <v>3</v>
@@ -8073,21 +10483,21 @@
         <v>3839</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C73" s="11" t="n">
         <v>3</v>
@@ -8099,21 +10509,21 @@
         <v>2839</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C74" s="11" t="n">
         <v>4</v>
@@ -8125,21 +10535,21 @@
         <v>3841</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C75" s="11" t="n">
         <v>4</v>
@@ -8151,73 +10561,73 @@
         <v>2841</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C76" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E76" s="11" t="n">
         <v>3841</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C77" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E77" s="11" t="n">
         <v>2841</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C78" s="11" t="n">
         <v>4</v>
@@ -8229,21 +10639,21 @@
         <v>3841</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C79" s="11" t="n">
         <v>4</v>
@@ -8255,73 +10665,73 @@
         <v>2841</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C80" s="11" t="n">
         <v>5</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E80" s="11" t="n">
         <v>3843</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C81" s="11" t="n">
         <v>5</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E81" s="11" t="n">
         <v>2843</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C82" s="11" t="n">
         <v>5</v>
@@ -8333,21 +10743,21 @@
         <v>3843</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C83" s="11" t="n">
         <v>5</v>
@@ -8359,99 +10769,99 @@
         <v>2843</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C84" s="11" t="n">
         <v>7</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E84" s="11" t="n">
         <v>3845</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C85" s="11" t="n">
         <v>7</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E85" s="11" t="n">
         <v>2845</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E86" s="11" t="n">
         <v>1831</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C87" s="11" t="n">
         <v>0</v>
@@ -8463,47 +10873,47 @@
         <v>1831</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E88" s="11" t="n">
         <v>1828</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C89" s="11" t="n">
         <v>0</v>
@@ -8515,21 +10925,21 @@
         <v>1828</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C90" s="11" t="n">
         <v>0</v>
@@ -8541,21 +10951,21 @@
         <v>1828</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C91" s="11" t="n">
         <v>0</v>
@@ -8567,21 +10977,21 @@
         <v>1828</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C92" s="11" t="n">
         <v>0</v>
@@ -8593,21 +11003,21 @@
         <v>1828</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" s="11" t="n">
         <v>0</v>
@@ -8619,21 +11029,21 @@
         <v>1828</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C94" s="11" t="n">
         <v>0</v>
@@ -8645,13 +11055,13 @@
         <v>1828</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -8678,25 +11088,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8728,27 +11138,27 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>314</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="n">
         <v>2310</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="11" t="n">
@@ -8759,8 +11169,8 @@
       <c r="A3" s="11" t="n">
         <v>2310</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>315</v>
+      <c r="B3" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>1847</v>
@@ -8770,7 +11180,7 @@
       <c r="A4" s="11" t="n">
         <v>2330</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="11" t="n">
@@ -8781,8 +11191,8 @@
       <c r="A5" s="11" t="n">
         <v>2330</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>315</v>
+      <c r="B5" s="48" t="s">
+        <v>316</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>1849</v>
